--- a/file_template/template_file3.xlsx
+++ b/file_template/template_file3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LETPC\Nhan\FlaskPOS\file_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822EBD16-247A-4F03-BDA1-2CDD7B07EF93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05762576-839D-4A86-9255-40350EF50F29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18280" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,6 +814,36 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="2" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -842,12 +872,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -864,30 +888,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1176,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="60" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G20" sqref="G20:H20"/>
     </sheetView>
   </sheetViews>
@@ -1193,19 +1193,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1225,12 +1225,12 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
@@ -1289,12 +1289,12 @@
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="18" t="s">
         <v>6</v>
       </c>
@@ -1308,12 +1308,12 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="21"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
@@ -1323,10 +1323,10 @@
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="21"/>
       <c r="F9" s="22"/>
       <c r="G9" s="13"/>
@@ -1336,10 +1336,10 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="18" t="s">
         <v>8</v>
       </c>
@@ -1486,20 +1486,20 @@
         <v>14</v>
       </c>
       <c r="F20" s="34"/>
-      <c r="G20" s="87" t="s">
+      <c r="G20" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="87"/>
+      <c r="H20" s="95"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="35" t="s">
         <v>16</v>
       </c>
@@ -1550,11 +1550,11 @@
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="43" t="str">
         <f>J4</f>
         <v>date</v>
@@ -1568,29 +1568,29 @@
       <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="93" t="s">
+      <c r="E25" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="94"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="95" t="s">
+      <c r="H25" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="95"/>
-      <c r="J25" s="71" t="s">
+      <c r="I25" s="80"/>
+      <c r="J25" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="72"/>
+      <c r="K25" s="82"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
@@ -1600,8 +1600,8 @@
       <c r="E26" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="47"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -1610,17 +1610,17 @@
     <row r="27" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="50"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="88"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="51"/>
       <c r="F27" s="52"/>
       <c r="G27" s="53"/>
-      <c r="H27" s="89" t="s">
+      <c r="H27" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="89"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="48"/>
       <c r="K27" s="54"/>
     </row>
@@ -1634,10 +1634,10 @@
       <c r="E28" s="58"/>
       <c r="F28" s="59"/>
       <c r="G28" s="60"/>
-      <c r="H28" s="89" t="s">
+      <c r="H28" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="89"/>
+      <c r="I28" s="72"/>
       <c r="J28" s="61"/>
       <c r="K28" s="62"/>
     </row>
@@ -1671,13 +1671,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="A1:K1"/>
@@ -1686,7 +1679,15 @@
     <mergeCell ref="A8:D10"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>